--- a/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_rope_1_2.xlsx
+++ b/story/Main Story and Others 主线剧情等/Operator Record 干员密录/story_rope_1_2.xlsx
@@ -2212,7 +2212,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rope"]  “Lena's aromatherapy stands dominant at the forefront of the treatment and rehabilitation domain.” ...In words kinda like that.
+    <t xml:space="preserve">[name="Rope"]  'Lena's aromatherapy stands dominant at the forefront of the treatment and rehabilitation domain.' ...In words kinda like that.
 </t>
   </si>
   <si>
@@ -2940,7 +2940,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="로프"]  (작은 소리로) 그러면서 겨우겨우 팀을 이끌고 지원하러 왔더라고……
+    <t xml:space="preserve">[name="로프"]  (작은 목소리로) 그러면서 겨우겨우 팀을 이끌고 지원하러 왔더라고……
 </t>
   </si>
   <si>
